--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51057702\OneDrive - Adecco\Documenten\UiPath\Intern\SalesBox_V2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_51060546\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0425FF-ABF8-49C2-A970-823650C57AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A713C9-8F64-4731-9FAA-5CEDABA33479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="5" r:id="rId1"/>
@@ -19,12 +19,25 @@
     <sheet name="Assets" sheetId="3" r:id="rId4"/>
     <sheet name="LogData" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -202,9 +215,6 @@
     <t>1.0_SF_SalesboxFilter</t>
   </si>
   <si>
-    <t>Interne Processen/Gerrie</t>
-  </si>
-  <si>
     <t>OrchestratorFolder</t>
   </si>
   <si>
@@ -217,10 +227,19 @@
     <t>OutlookFolder</t>
   </si>
   <si>
-    <t>DispatchFolder</t>
-  </si>
-  <si>
-    <t>MailAccount</t>
+    <t>Salesbot_DispatchFolder</t>
+  </si>
+  <si>
+    <t>Salesbot_DispatchEmail</t>
+  </si>
+  <si>
+    <t>DispatchEmail</t>
+  </si>
+  <si>
+    <t>Salesbot_Mailaccount</t>
+  </si>
+  <si>
+    <t>PROD_Environment\Leusden</t>
   </si>
 </sst>
 </file>
@@ -484,7 +503,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -522,7 +541,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -536,9 +554,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutraal" xfId="2" builtinId="28"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,7 +577,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -919,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -969,7 +987,7 @@
       <c r="A2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -978,10 +996,10 @@
     </row>
     <row r="3" spans="1:26" ht="45">
       <c r="A3" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>25</v>
@@ -989,9 +1007,9 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="A4" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -999,14 +1017,14 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="31"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3176,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3227,27 +3245,31 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>65</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>63</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="C4" s="20"/>
       <c r="D4" s="15"/>
     </row>
@@ -3270,22 +3292,22 @@
       <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="20"/>
       <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="39"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="41"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="9"/>
@@ -4367,12 +4389,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006626A16AA460A44DB96C1A164B5C7644" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="78c92bf3c47c7066def7269bb6c0fa70">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9baad2c-391d-4b9a-9dd4-ae5129a59b42" xmlns:ns3="f8e3fad1-b81e-44e9-8986-43b539e13ca6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f1f6483e8083520ace7014b04e52b3e" ns2:_="" ns3:_="">
     <xsd:import namespace="c9baad2c-391d-4b9a-9dd4-ae5129a59b42"/>
@@ -4589,6 +4605,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08431D8B-4BC5-404A-86A8-F5297393360A}">
   <ds:schemaRefs>
@@ -4598,15 +4620,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC7535B-3A6A-49C0-9BB8-7930F06679A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD5B6314-65F5-45DA-8A20-4759B9D32744}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4623,4 +4636,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC7535B-3A6A-49C0-9BB8-7930F06679A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>